--- a/1-零件清单/吸尘器电机零部件库存明细.xlsx
+++ b/1-零件清单/吸尘器电机零部件库存明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>电机零部件库存明细</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>康达5071胶水</t>
+  </si>
+  <si>
+    <t>风罩A-ABS</t>
+  </si>
+  <si>
+    <t>风罩B-ABS</t>
+  </si>
+  <si>
+    <t>风罩C-ABS</t>
   </si>
 </sst>
 </file>
@@ -120,9 +129,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -158,21 +167,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,56 +241,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,6 +264,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -256,9 +280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,28 +298,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,19 +318,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +462,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,151 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,24 +523,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +557,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,15 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,17 +624,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,144 +644,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,43 +1109,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="32.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1270,36 +1277,36 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1453,6 +1460,76 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
